--- a/output_from_HPMC E3/data_tables_from_HPMC E3/stats_analysis_output_mean_HPMC E3.xlsx
+++ b/output_from_HPMC E3/data_tables_from_HPMC E3/stats_analysis_output_mean_HPMC E3.xlsx
@@ -416,7 +416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N45"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -492,16 +492,16 @@
         <v>0.25</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D4" s="1">
-        <v>4.46735</v>
+        <v>3.6109</v>
       </c>
       <c r="E4">
-        <v>0.002508811259445707</v>
+        <v>0.001550667108315957</v>
       </c>
       <c r="F4">
-        <v>0.002038230437452756</v>
+        <v>0.0008756671560996498</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -510,7 +510,7 @@
         <v>3</v>
       </c>
       <c r="I4">
-        <v>0.000289867015015014</v>
+        <v>7.441972698720833E-05</v>
       </c>
       <c r="J4" t="b">
         <v>1</v>
@@ -519,29 +519,29 @@
         <v>0.9</v>
       </c>
       <c r="L4">
-        <v>0.002257930133501136</v>
+        <v>0.001395600397484362</v>
       </c>
       <c r="M4">
-        <v>4.980957105562994E-07</v>
+        <v>8.343353483795776E-07</v>
       </c>
       <c r="N4">
-        <v>0.04633517350523831</v>
+        <v>0.006990577962938245</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" s="1">
-        <v>3.6109</v>
+        <v>3.4779</v>
       </c>
       <c r="E5">
-        <v>0.001550667108315957</v>
+        <v>0.00078626834664914</v>
       </c>
       <c r="F5">
-        <v>0.0008756671560996498</v>
+        <v>0.0007120976030964331</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -550,38 +550,38 @@
         <v>3</v>
       </c>
       <c r="I5">
-        <v>0.0005973614563345195</v>
+        <v>-0.0004142245740902094</v>
       </c>
       <c r="J5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0.9</v>
       </c>
       <c r="L5">
-        <v>0.001395600397484362</v>
+        <v>0.000707641511984226</v>
       </c>
       <c r="M5">
-        <v>1.080068228111845E-06</v>
+        <v>5.936491195634528E-06</v>
       </c>
       <c r="N5">
-        <v>0.006006009282950221</v>
+        <v>0.009319560728515069</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6" s="1">
-        <v>3.4779</v>
+        <v>3.3526</v>
       </c>
       <c r="E6">
-        <v>0.00078626834664914</v>
+        <v>0.002028684321219772</v>
       </c>
       <c r="F6">
-        <v>0.0007120976030964331</v>
+        <v>0.002406226116877359</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -590,38 +590,38 @@
         <v>3</v>
       </c>
       <c r="I6">
-        <v>1.10346690290413E-05</v>
+        <v>-0.002027862711727084</v>
       </c>
       <c r="J6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0.9</v>
       </c>
       <c r="L6">
-        <v>0.000707641511984226</v>
+        <v>0.001825815889097795</v>
       </c>
       <c r="M6">
-        <v>7.070866573756115E-06</v>
+        <v>5.56288720136683E-07</v>
       </c>
       <c r="N6">
-        <v>0.00769374947630611</v>
+        <v>0.008479217955238413</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D7" s="1">
-        <v>3.3526</v>
+        <v>3.10065</v>
       </c>
       <c r="E7">
-        <v>0.002028684321219772</v>
+        <v>0.002847165372454657</v>
       </c>
       <c r="F7">
-        <v>0.002406226116877359</v>
+        <v>0.006929903306532746</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -630,7 +630,7 @@
         <v>3</v>
       </c>
       <c r="I7">
-        <v>-0.0005908828752727445</v>
+        <v>-0.008835643030109452</v>
       </c>
       <c r="J7" t="b">
         <v>0</v>
@@ -639,29 +639,31 @@
         <v>0.9</v>
       </c>
       <c r="L7">
-        <v>0.001825815889097795</v>
+        <v>0.002562448835209192</v>
       </c>
       <c r="M7">
-        <v>5.56288720136683E-07</v>
+        <v>2.504018204488985E-06</v>
       </c>
       <c r="N7">
-        <v>0.008479217955238413</v>
+        <v>0.01812750032152885</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
+      <c r="B8" s="1">
+        <v>0.5</v>
+      </c>
       <c r="C8" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D8" s="1">
-        <v>3.10065</v>
+        <v>3.6109</v>
       </c>
       <c r="E8">
-        <v>0.002847165372454657</v>
+        <v>0.002127136159669162</v>
       </c>
       <c r="F8">
-        <v>0.006929903306532746</v>
+        <v>0.001372960685387735</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -670,7 +672,7 @@
         <v>3</v>
       </c>
       <c r="I8">
-        <v>-0.004697157768803747</v>
+        <v>-0.0001874757363607912</v>
       </c>
       <c r="J8" t="b">
         <v>0</v>
@@ -679,29 +681,29 @@
         <v>0.9</v>
       </c>
       <c r="L8">
-        <v>0.002562448835209192</v>
+        <v>0.001914422543702246</v>
       </c>
       <c r="M8">
-        <v>2.504018204488985E-06</v>
+        <v>8.343353483795776E-07</v>
       </c>
       <c r="N8">
-        <v>0.01812750032152885</v>
+        <v>0.006990577962938245</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D9" s="1">
-        <v>1.16595</v>
+        <v>3.4779</v>
       </c>
       <c r="E9">
-        <v>0.000589412916736546</v>
+        <v>0.001691195065039021</v>
       </c>
       <c r="F9">
-        <v>0.001427897252187617</v>
+        <v>0.0009893416892740562</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -710,40 +712,38 @@
         <v>3</v>
       </c>
       <c r="I9">
-        <v>-0.0009650847156998532</v>
+        <v>2.33089648733753E-05</v>
       </c>
       <c r="J9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9">
         <v>0.9</v>
       </c>
       <c r="L9">
-        <v>0.0005304716250628914</v>
+        <v>0.001522075558535119</v>
       </c>
       <c r="M9">
-        <v>8.633460081692426E-07</v>
+        <v>5.936491195634528E-06</v>
       </c>
       <c r="N9">
-        <v>0.002757946522992761</v>
+        <v>0.009319560728515069</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1"/>
-      <c r="B10" s="1">
-        <v>0.5</v>
-      </c>
+      <c r="B10" s="1"/>
       <c r="C10" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D10" s="1">
-        <v>4.46735</v>
+        <v>3.3526</v>
       </c>
       <c r="E10">
-        <v>0.002063874462241115</v>
+        <v>0.003489894021777238</v>
       </c>
       <c r="F10">
-        <v>0.001137060666940623</v>
+        <v>0.0005740824206931713</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -752,7 +752,7 @@
         <v>3</v>
       </c>
       <c r="I10">
-        <v>0.0008259995997552075</v>
+        <v>0.002522074611957189</v>
       </c>
       <c r="J10" t="b">
         <v>1</v>
@@ -761,29 +761,29 @@
         <v>0.9</v>
       </c>
       <c r="L10">
-        <v>0.001857487016017004</v>
+        <v>0.003140904619599514</v>
       </c>
       <c r="M10">
-        <v>4.980957105562994E-07</v>
+        <v>5.56288720136683E-07</v>
       </c>
       <c r="N10">
-        <v>0.04633517350523831</v>
+        <v>0.008479217955238413</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D11" s="1">
-        <v>3.6109</v>
+        <v>3.10065</v>
       </c>
       <c r="E11">
-        <v>0.002127136159669162</v>
+        <v>0.006193859278525052</v>
       </c>
       <c r="F11">
-        <v>0.001372960685387735</v>
+        <v>0.003042912391035445</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -792,7 +792,7 @@
         <v>3</v>
       </c>
       <c r="I11">
-        <v>0.0006324458858461132</v>
+        <v>0.001063951850128041</v>
       </c>
       <c r="J11" t="b">
         <v>1</v>
@@ -801,29 +801,31 @@
         <v>0.9</v>
       </c>
       <c r="L11">
-        <v>0.001914422543702246</v>
+        <v>0.005574473350672547</v>
       </c>
       <c r="M11">
-        <v>1.080068228111845E-06</v>
+        <v>2.504018204488985E-06</v>
       </c>
       <c r="N11">
-        <v>0.006006009282950221</v>
+        <v>0.01812750032152885</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
+      <c r="B12" s="1">
+        <v>0.75</v>
+      </c>
       <c r="C12" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" s="1">
-        <v>3.4779</v>
+        <v>3.6109</v>
       </c>
       <c r="E12">
-        <v>0.001691195065039021</v>
+        <v>0.003902810987214853</v>
       </c>
       <c r="F12">
-        <v>0.0009893416892740562</v>
+        <v>0.002238535514268487</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -832,7 +834,7 @@
         <v>3</v>
       </c>
       <c r="I12">
-        <v>0.0006141362561569704</v>
+        <v>0.0001289659047184664</v>
       </c>
       <c r="J12" t="b">
         <v>1</v>
@@ -841,29 +843,29 @@
         <v>0.9</v>
       </c>
       <c r="L12">
-        <v>0.001522075558535119</v>
+        <v>0.003512529888493368</v>
       </c>
       <c r="M12">
-        <v>7.070866573756115E-06</v>
+        <v>8.343353483795776E-07</v>
       </c>
       <c r="N12">
-        <v>0.00769374947630611</v>
+        <v>0.006990577962938245</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D13" s="1">
-        <v>3.3526</v>
+        <v>3.4779</v>
       </c>
       <c r="E13">
-        <v>0.003489894021777238</v>
+        <v>0.006123538857977733</v>
       </c>
       <c r="F13">
-        <v>0.0005740824206931713</v>
+        <v>0.0004348154391743223</v>
       </c>
       <c r="G13">
         <v>2</v>
@@ -872,7 +874,7 @@
         <v>3</v>
       </c>
       <c r="I13">
-        <v>0.002864912243554981</v>
+        <v>0.005390503310200083</v>
       </c>
       <c r="J13" t="b">
         <v>1</v>
@@ -881,29 +883,29 @@
         <v>0.9</v>
       </c>
       <c r="L13">
-        <v>0.003140904619599514</v>
+        <v>0.00551118497217996</v>
       </c>
       <c r="M13">
-        <v>5.56288720136683E-07</v>
+        <v>5.936491195634528E-06</v>
       </c>
       <c r="N13">
-        <v>0.008479217955238413</v>
+        <v>0.009319560728515069</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D14" s="1">
-        <v>3.10065</v>
+        <v>3.3526</v>
       </c>
       <c r="E14">
-        <v>0.006193859278525052</v>
+        <v>0.004653769281895745</v>
       </c>
       <c r="F14">
-        <v>0.003042912391035445</v>
+        <v>0.001412873045171665</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -912,7 +914,7 @@
         <v>3</v>
       </c>
       <c r="I14">
-        <v>0.002881155860734274</v>
+        <v>0.002271870956081078</v>
       </c>
       <c r="J14" t="b">
         <v>1</v>
@@ -921,29 +923,29 @@
         <v>0.9</v>
       </c>
       <c r="L14">
-        <v>0.005574473350672547</v>
+        <v>0.00418839235370617</v>
       </c>
       <c r="M14">
-        <v>2.504018204488985E-06</v>
+        <v>5.56288720136683E-07</v>
       </c>
       <c r="N14">
-        <v>0.01812750032152885</v>
+        <v>0.008479217955238413</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D15" s="1">
-        <v>1.16595</v>
+        <v>3.10065</v>
       </c>
       <c r="E15">
-        <v>0.0009322830593043195</v>
+        <v>0.008777024924861631</v>
       </c>
       <c r="F15">
-        <v>0.0006152365097448239</v>
+        <v>0.001369498400551052</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -952,7 +954,7 @@
         <v>3</v>
       </c>
       <c r="I15">
-        <v>0.0002624983837462359</v>
+        <v>0.006468249937168326</v>
       </c>
       <c r="J15" t="b">
         <v>1</v>
@@ -961,31 +963,31 @@
         <v>0.9</v>
       </c>
       <c r="L15">
-        <v>0.0008390547533738876</v>
+        <v>0.007899322432375469</v>
       </c>
       <c r="M15">
-        <v>8.633460081692426E-07</v>
+        <v>2.504018204488985E-06</v>
       </c>
       <c r="N15">
-        <v>0.002757946522992761</v>
+        <v>0.01812750032152885</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1"/>
       <c r="B16" s="1">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="C16" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D16" s="1">
-        <v>4.46735</v>
+        <v>3.6109</v>
       </c>
       <c r="E16">
-        <v>0.002226995083507674</v>
+        <v>0.004459273011678169</v>
       </c>
       <c r="F16">
-        <v>0.001883858309165064</v>
+        <v>0.001806084488237216</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -994,7 +996,7 @@
         <v>3</v>
       </c>
       <c r="I16">
-        <v>0.0001761099256602323</v>
+        <v>0.001414477420514931</v>
       </c>
       <c r="J16" t="b">
         <v>1</v>
@@ -1003,29 +1005,29 @@
         <v>0.9</v>
       </c>
       <c r="L16">
-        <v>0.002004295575156907</v>
+        <v>0.004013345710510353</v>
       </c>
       <c r="M16">
-        <v>4.980957105562994E-07</v>
+        <v>8.343353483795776E-07</v>
       </c>
       <c r="N16">
-        <v>0.04633517350523831</v>
+        <v>0.006990577962938245</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17" s="1">
-        <v>3.6109</v>
+        <v>3.4779</v>
       </c>
       <c r="E17">
-        <v>0.003902810987214853</v>
+        <v>0.00516691300402597</v>
       </c>
       <c r="F17">
-        <v>0.002238535514268487</v>
+        <v>0.001183872627114477</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -1034,7 +1036,7 @@
         <v>3</v>
       </c>
       <c r="I17">
-        <v>0.001465802195634144</v>
+        <v>0.003171076054529091</v>
       </c>
       <c r="J17" t="b">
         <v>1</v>
@@ -1043,29 +1045,29 @@
         <v>0.9</v>
       </c>
       <c r="L17">
-        <v>0.003512529888493368</v>
+        <v>0.004650221703623373</v>
       </c>
       <c r="M17">
-        <v>1.080068228111845E-06</v>
+        <v>5.936491195634528E-06</v>
       </c>
       <c r="N17">
-        <v>0.006006009282950221</v>
+        <v>0.009319560728515069</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D18" s="1">
-        <v>3.4779</v>
+        <v>3.3526</v>
       </c>
       <c r="E18">
-        <v>0.006123538857977733</v>
+        <v>0.006149172797063336</v>
       </c>
       <c r="F18">
-        <v>0.0004348154391743223</v>
+        <v>0.001892271894371912</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -1074,7 +1076,7 @@
         <v>3</v>
       </c>
       <c r="I18">
-        <v>0.005650171765417164</v>
+        <v>0.002959077782798995</v>
       </c>
       <c r="J18" t="b">
         <v>1</v>
@@ -1083,29 +1085,29 @@
         <v>0.9</v>
       </c>
       <c r="L18">
-        <v>0.00551118497217996</v>
+        <v>0.005534255517357003</v>
       </c>
       <c r="M18">
-        <v>7.070866573756115E-06</v>
+        <v>5.56288720136683E-07</v>
       </c>
       <c r="N18">
-        <v>0.00769374947630611</v>
+        <v>0.008479217955238413</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D19" s="1">
-        <v>3.3526</v>
+        <v>3.10065</v>
       </c>
       <c r="E19">
-        <v>0.004653769281895745</v>
+        <v>0.009891341689964967</v>
       </c>
       <c r="F19">
-        <v>0.001412873045171665</v>
+        <v>0.002333759345395661</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -1114,7 +1116,7 @@
         <v>3</v>
       </c>
       <c r="I19">
-        <v>0.003115627934338913</v>
+        <v>0.00595696308698379</v>
       </c>
       <c r="J19" t="b">
         <v>1</v>
@@ -1123,29 +1125,31 @@
         <v>0.9</v>
       </c>
       <c r="L19">
-        <v>0.00418839235370617</v>
+        <v>0.00890220752096847</v>
       </c>
       <c r="M19">
-        <v>5.56288720136683E-07</v>
+        <v>2.504018204488985E-06</v>
       </c>
       <c r="N19">
-        <v>0.008479217955238413</v>
+        <v>0.01812750032152885</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
+      <c r="B20" s="1">
+        <v>1.25</v>
+      </c>
       <c r="C20" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D20" s="1">
-        <v>3.10065</v>
+        <v>3.6109</v>
       </c>
       <c r="E20">
-        <v>0.008777024924861631</v>
+        <v>0.004162946736346905</v>
       </c>
       <c r="F20">
-        <v>0.001369498400551052</v>
+        <v>0.002115068866380376</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -1154,7 +1158,7 @@
         <v>3</v>
       </c>
       <c r="I20">
-        <v>0.007286103909347048</v>
+        <v>0.0005972484529586509</v>
       </c>
       <c r="J20" t="b">
         <v>1</v>
@@ -1163,29 +1167,29 @@
         <v>0.9</v>
       </c>
       <c r="L20">
-        <v>0.007899322432375469</v>
+        <v>0.003746652062712215</v>
       </c>
       <c r="M20">
-        <v>2.504018204488985E-06</v>
+        <v>8.343353483795776E-07</v>
       </c>
       <c r="N20">
-        <v>0.01812750032152885</v>
+        <v>0.006990577962938245</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D21" s="1">
-        <v>1.16595</v>
+        <v>3.4779</v>
       </c>
       <c r="E21">
-        <v>0.002357573131971851</v>
+        <v>0.004747203391751016</v>
       </c>
       <c r="F21">
-        <v>0.001962667887897613</v>
+        <v>0.004005666611859838</v>
       </c>
       <c r="G21">
         <v>2</v>
@@ -1194,40 +1198,38 @@
         <v>3</v>
       </c>
       <c r="I21">
-        <v>0.0002208909720184346</v>
+        <v>-0.002005767534523117</v>
       </c>
       <c r="J21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21">
         <v>0.9</v>
       </c>
       <c r="L21">
-        <v>0.002121815818774666</v>
+        <v>0.004272483052575915</v>
       </c>
       <c r="M21">
-        <v>8.633460081692426E-07</v>
+        <v>5.936491195634528E-06</v>
       </c>
       <c r="N21">
-        <v>0.002757946522992761</v>
+        <v>0.009319560728515069</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="1"/>
-      <c r="B22" s="1">
-        <v>1</v>
-      </c>
+      <c r="B22" s="1"/>
       <c r="C22" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D22" s="1">
-        <v>4.46735</v>
+        <v>3.3526</v>
       </c>
       <c r="E22">
-        <v>0.002773571174628842</v>
+        <v>0.006412670519681168</v>
       </c>
       <c r="F22">
-        <v>0.001445556395743726</v>
+        <v>0.001823755415877802</v>
       </c>
       <c r="G22">
         <v>2</v>
@@ -1236,7 +1238,7 @@
         <v>3</v>
       </c>
       <c r="I22">
-        <v>0.001199848701744876</v>
+        <v>0.003338084316327725</v>
       </c>
       <c r="J22" t="b">
         <v>1</v>
@@ -1245,29 +1247,29 @@
         <v>0.9</v>
       </c>
       <c r="L22">
-        <v>0.002496214057165958</v>
+        <v>0.005771403467713052</v>
       </c>
       <c r="M22">
-        <v>4.980957105562994E-07</v>
+        <v>5.56288720136683E-07</v>
       </c>
       <c r="N22">
-        <v>0.04633517350523831</v>
+        <v>0.008479217955238413</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D23" s="1">
-        <v>3.6109</v>
+        <v>3.10065</v>
       </c>
       <c r="E23">
-        <v>0.004459273011678169</v>
+        <v>0.01041262803789292</v>
       </c>
       <c r="F23">
-        <v>0.001806084488237216</v>
+        <v>0.004310000541231785</v>
       </c>
       <c r="G23">
         <v>2</v>
@@ -1276,7 +1278,7 @@
         <v>3</v>
       </c>
       <c r="I23">
-        <v>0.002493057265661759</v>
+        <v>0.003146594399199662</v>
       </c>
       <c r="J23" t="b">
         <v>1</v>
@@ -1285,29 +1287,31 @@
         <v>0.9</v>
       </c>
       <c r="L23">
-        <v>0.004013345710510353</v>
+        <v>0.009371365234103627</v>
       </c>
       <c r="M23">
-        <v>1.080068228111845E-06</v>
+        <v>2.504018204488985E-06</v>
       </c>
       <c r="N23">
-        <v>0.006006009282950221</v>
+        <v>0.01812750032152885</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
+      <c r="B24" s="1">
+        <v>1.5</v>
+      </c>
       <c r="C24" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" s="1">
-        <v>3.4779</v>
+        <v>3.6109</v>
       </c>
       <c r="E24">
-        <v>0.00516691300402597</v>
+        <v>0.004366774448485302</v>
       </c>
       <c r="F24">
-        <v>0.001183872627114477</v>
+        <v>0.002538442832582437</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -1316,7 +1320,7 @@
         <v>3</v>
       </c>
       <c r="I24">
-        <v>0.003878075734302094</v>
+        <v>8.73292755683569E-05</v>
       </c>
       <c r="J24" t="b">
         <v>1</v>
@@ -1325,29 +1329,29 @@
         <v>0.9</v>
       </c>
       <c r="L24">
-        <v>0.004650221703623373</v>
+        <v>0.003930097003636772</v>
       </c>
       <c r="M24">
-        <v>7.070866573756115E-06</v>
+        <v>8.343353483795776E-07</v>
       </c>
       <c r="N24">
-        <v>0.00769374947630611</v>
+        <v>0.006990577962938245</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D25" s="1">
-        <v>3.3526</v>
+        <v>3.4779</v>
       </c>
       <c r="E25">
-        <v>0.006149172797063336</v>
+        <v>0.004498294554471961</v>
       </c>
       <c r="F25">
-        <v>0.001892271894371912</v>
+        <v>0.001556166576735743</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -1356,7 +1360,7 @@
         <v>3</v>
       </c>
       <c r="I25">
-        <v>0.00408912808780958</v>
+        <v>0.001874824189259318</v>
       </c>
       <c r="J25" t="b">
         <v>1</v>
@@ -1365,29 +1369,29 @@
         <v>0.9</v>
       </c>
       <c r="L25">
-        <v>0.005534255517357003</v>
+        <v>0.004048465099024765</v>
       </c>
       <c r="M25">
-        <v>5.56288720136683E-07</v>
+        <v>5.936491195634528E-06</v>
       </c>
       <c r="N25">
-        <v>0.008479217955238413</v>
+        <v>0.009319560728515069</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D26" s="1">
-        <v>3.10065</v>
+        <v>3.3526</v>
       </c>
       <c r="E26">
-        <v>0.009891341689964967</v>
+        <v>0.006271567811640076</v>
       </c>
       <c r="F26">
-        <v>0.002333759345395661</v>
+        <v>0.001531141929292717</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -1396,7 +1400,7 @@
         <v>3</v>
       </c>
       <c r="I26">
-        <v>0.007350666321666687</v>
+        <v>0.00369028535995041</v>
       </c>
       <c r="J26" t="b">
         <v>1</v>
@@ -1405,29 +1409,29 @@
         <v>0.9</v>
       </c>
       <c r="L26">
-        <v>0.00890220752096847</v>
+        <v>0.005644411030476068</v>
       </c>
       <c r="M26">
-        <v>2.504018204488985E-06</v>
+        <v>5.56288720136683E-07</v>
       </c>
       <c r="N26">
-        <v>0.01812750032152885</v>
+        <v>0.008479217955238413</v>
       </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D27" s="1">
-        <v>1.16595</v>
+        <v>3.10065</v>
       </c>
       <c r="E27">
-        <v>0.002621162454770787</v>
+        <v>0.009212108026235418</v>
       </c>
       <c r="F27">
-        <v>0.0006672998994303415</v>
+        <v>0.00161848633340954</v>
       </c>
       <c r="G27">
         <v>2</v>
@@ -1436,7 +1440,7 @@
         <v>3</v>
       </c>
       <c r="I27">
-        <v>0.001894698339653058</v>
+        <v>0.006483575621235288</v>
       </c>
       <c r="J27" t="b">
         <v>1</v>
@@ -1445,31 +1449,31 @@
         <v>0.9</v>
       </c>
       <c r="L27">
-        <v>0.002359046209293708</v>
+        <v>0.008290897223611877</v>
       </c>
       <c r="M27">
-        <v>8.633460081692426E-07</v>
+        <v>2.504018204488985E-06</v>
       </c>
       <c r="N27">
-        <v>0.002757946522992761</v>
+        <v>0.01812750032152885</v>
       </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="1"/>
       <c r="B28" s="1">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="C28" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D28" s="1">
-        <v>4.46735</v>
+        <v>3.6109</v>
       </c>
       <c r="E28">
-        <v>0.002976145421653285</v>
+        <v>0.005731950155392642</v>
       </c>
       <c r="F28">
-        <v>0.001482698037432107</v>
+        <v>0.001896119725043577</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -1478,7 +1482,7 @@
         <v>3</v>
       </c>
       <c r="I28">
-        <v>0.001361988250837844</v>
+        <v>0.002535368258625888</v>
       </c>
       <c r="J28" t="b">
         <v>1</v>
@@ -1487,29 +1491,29 @@
         <v>0.9</v>
       </c>
       <c r="L28">
-        <v>0.002678530879487956</v>
+        <v>0.005158755139853378</v>
       </c>
       <c r="M28">
-        <v>4.980957105562994E-07</v>
+        <v>8.343353483795776E-07</v>
       </c>
       <c r="N28">
-        <v>0.04633517350523831</v>
+        <v>0.006990577962938245</v>
       </c>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29" s="1">
-        <v>3.6109</v>
+        <v>3.4779</v>
       </c>
       <c r="E29">
-        <v>0.004162946736346905</v>
+        <v>0.005598805182168162</v>
       </c>
       <c r="F29">
-        <v>0.002115068866380376</v>
+        <v>0.00092740367285884</v>
       </c>
       <c r="G29">
         <v>2</v>
@@ -1518,7 +1522,7 @@
         <v>3</v>
       </c>
       <c r="I29">
-        <v>0.001860351405911865</v>
+        <v>0.00403533756327219</v>
       </c>
       <c r="J29" t="b">
         <v>1</v>
@@ -1527,29 +1531,29 @@
         <v>0.9</v>
       </c>
       <c r="L29">
-        <v>0.003746652062712215</v>
+        <v>0.005038924663951345</v>
       </c>
       <c r="M29">
-        <v>1.080068228111845E-06</v>
+        <v>5.936491195634528E-06</v>
       </c>
       <c r="N29">
-        <v>0.006006009282950221</v>
+        <v>0.009319560728515069</v>
       </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D30" s="1">
-        <v>3.4779</v>
+        <v>3.3526</v>
       </c>
       <c r="E30">
-        <v>0.004747203391751016</v>
+        <v>0.007530971071360286</v>
       </c>
       <c r="F30">
-        <v>0.004005666611859838</v>
+        <v>0.0006845501127761363</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -1558,7 +1562,7 @@
         <v>3</v>
       </c>
       <c r="I30">
-        <v>0.0003863859345244192</v>
+        <v>0.006376919210062578</v>
       </c>
       <c r="J30" t="b">
         <v>1</v>
@@ -1567,29 +1571,29 @@
         <v>0.9</v>
       </c>
       <c r="L30">
-        <v>0.004272483052575915</v>
+        <v>0.006777873964224257</v>
       </c>
       <c r="M30">
-        <v>7.070866573756115E-06</v>
+        <v>5.56288720136683E-07</v>
       </c>
       <c r="N30">
-        <v>0.00769374947630611</v>
+        <v>0.008479217955238413</v>
       </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D31" s="1">
-        <v>3.3526</v>
+        <v>3.10065</v>
       </c>
       <c r="E31">
-        <v>0.006412670519681168</v>
+        <v>0.01159441098158175</v>
       </c>
       <c r="F31">
-        <v>0.001823755415877802</v>
+        <v>0.002171440392668465</v>
       </c>
       <c r="G31">
         <v>2</v>
@@ -1598,7 +1602,7 @@
         <v>3</v>
       </c>
       <c r="I31">
-        <v>0.004427217104330946</v>
+        <v>0.007933678509135903</v>
       </c>
       <c r="J31" t="b">
         <v>1</v>
@@ -1607,590 +1611,26 @@
         <v>0.9</v>
       </c>
       <c r="L31">
-        <v>0.005771403467713052</v>
+        <v>0.01043496988342357</v>
       </c>
       <c r="M31">
-        <v>5.56288720136683E-07</v>
+        <v>2.504018204488985E-06</v>
       </c>
       <c r="N31">
-        <v>0.008479217955238413</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1">
-        <v>7</v>
-      </c>
-      <c r="D32" s="1">
-        <v>3.10065</v>
-      </c>
-      <c r="E32">
-        <v>0.01041262803789292</v>
-      </c>
-      <c r="F32">
-        <v>0.004310000541231785</v>
-      </c>
-      <c r="G32">
-        <v>2</v>
-      </c>
-      <c r="H32">
-        <v>3</v>
-      </c>
-      <c r="I32">
-        <v>0.005720493763609657</v>
-      </c>
-      <c r="J32" t="b">
-        <v>1</v>
-      </c>
-      <c r="K32">
-        <v>0.9</v>
-      </c>
-      <c r="L32">
-        <v>0.009371365234103627</v>
-      </c>
-      <c r="M32">
-        <v>2.504018204488985E-06</v>
-      </c>
-      <c r="N32">
         <v>0.01812750032152885</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1">
-        <v>8</v>
-      </c>
-      <c r="D33" s="1">
-        <v>1.16595</v>
-      </c>
-      <c r="E33">
-        <v>0.003191907416502298</v>
-      </c>
-      <c r="F33">
-        <v>0.001500382669234804</v>
-      </c>
-      <c r="G33">
-        <v>2</v>
-      </c>
-      <c r="H33">
-        <v>3</v>
-      </c>
-      <c r="I33">
-        <v>0.001558497657151034</v>
-      </c>
-      <c r="J33" t="b">
-        <v>1</v>
-      </c>
-      <c r="K33">
-        <v>0.9</v>
-      </c>
-      <c r="L33">
-        <v>0.002872716674852068</v>
-      </c>
-      <c r="M33">
-        <v>8.633460081692426E-07</v>
-      </c>
-      <c r="N33">
-        <v>0.002757946522992761</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="C34" s="1">
-        <v>1</v>
-      </c>
-      <c r="D34" s="1">
-        <v>4.46735</v>
-      </c>
-      <c r="E34">
-        <v>0.002376693558925303</v>
-      </c>
-      <c r="F34">
-        <v>0.001605384536822537</v>
-      </c>
-      <c r="G34">
-        <v>2</v>
-      </c>
-      <c r="H34">
-        <v>3</v>
-      </c>
-      <c r="I34">
-        <v>0.0006289722450721572</v>
-      </c>
-      <c r="J34" t="b">
-        <v>1</v>
-      </c>
-      <c r="K34">
-        <v>0.9</v>
-      </c>
-      <c r="L34">
-        <v>0.002139024203032773</v>
-      </c>
-      <c r="M34">
-        <v>4.980957105562994E-07</v>
-      </c>
-      <c r="N34">
-        <v>0.04633517350523831</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1">
-        <v>4</v>
-      </c>
-      <c r="D35" s="1">
-        <v>3.6109</v>
-      </c>
-      <c r="E35">
-        <v>0.004366774448485302</v>
-      </c>
-      <c r="F35">
-        <v>0.002538442832582437</v>
-      </c>
-      <c r="G35">
-        <v>2</v>
-      </c>
-      <c r="H35">
-        <v>3</v>
-      </c>
-      <c r="I35">
-        <v>0.001603267923573198</v>
-      </c>
-      <c r="J35" t="b">
-        <v>1</v>
-      </c>
-      <c r="K35">
-        <v>0.9</v>
-      </c>
-      <c r="L35">
-        <v>0.003930097003636772</v>
-      </c>
-      <c r="M35">
-        <v>1.080068228111845E-06</v>
-      </c>
-      <c r="N35">
-        <v>0.006006009282950221</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1">
-        <v>5</v>
-      </c>
-      <c r="D36" s="1">
-        <v>3.4779</v>
-      </c>
-      <c r="E36">
-        <v>0.004498294554471961</v>
-      </c>
-      <c r="F36">
-        <v>0.001556166576735743</v>
-      </c>
-      <c r="G36">
-        <v>2</v>
-      </c>
-      <c r="H36">
-        <v>3</v>
-      </c>
-      <c r="I36">
-        <v>0.002804154968793622</v>
-      </c>
-      <c r="J36" t="b">
-        <v>1</v>
-      </c>
-      <c r="K36">
-        <v>0.9</v>
-      </c>
-      <c r="L36">
-        <v>0.004048465099024765</v>
-      </c>
-      <c r="M36">
-        <v>7.070866573756115E-06</v>
-      </c>
-      <c r="N36">
-        <v>0.00769374947630611</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1">
-        <v>6</v>
-      </c>
-      <c r="D37" s="1">
-        <v>3.3526</v>
-      </c>
-      <c r="E37">
-        <v>0.006271567811640076</v>
-      </c>
-      <c r="F37">
-        <v>0.001531141929292717</v>
-      </c>
-      <c r="G37">
-        <v>2</v>
-      </c>
-      <c r="H37">
-        <v>3</v>
-      </c>
-      <c r="I37">
-        <v>0.004604671611396608</v>
-      </c>
-      <c r="J37" t="b">
-        <v>1</v>
-      </c>
-      <c r="K37">
-        <v>0.9</v>
-      </c>
-      <c r="L37">
-        <v>0.005644411030476068</v>
-      </c>
-      <c r="M37">
-        <v>5.56288720136683E-07</v>
-      </c>
-      <c r="N37">
-        <v>0.008479217955238413</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1">
-        <v>7</v>
-      </c>
-      <c r="D38" s="1">
-        <v>3.10065</v>
-      </c>
-      <c r="E38">
-        <v>0.009212108026235418</v>
-      </c>
-      <c r="F38">
-        <v>0.00161848633340954</v>
-      </c>
-      <c r="G38">
-        <v>2</v>
-      </c>
-      <c r="H38">
-        <v>3</v>
-      </c>
-      <c r="I38">
-        <v>0.007450123282892541</v>
-      </c>
-      <c r="J38" t="b">
-        <v>1</v>
-      </c>
-      <c r="K38">
-        <v>0.9</v>
-      </c>
-      <c r="L38">
-        <v>0.008290897223611877</v>
-      </c>
-      <c r="M38">
-        <v>2.504018204488985E-06</v>
-      </c>
-      <c r="N38">
-        <v>0.01812750032152885</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1">
-        <v>8</v>
-      </c>
-      <c r="D39" s="1">
-        <v>1.16595</v>
-      </c>
-      <c r="E39">
-        <v>0.002653289519211722</v>
-      </c>
-      <c r="F39">
-        <v>0.001099457455959587</v>
-      </c>
-      <c r="G39">
-        <v>2</v>
-      </c>
-      <c r="H39">
-        <v>3</v>
-      </c>
-      <c r="I39">
-        <v>0.001456351847656376</v>
-      </c>
-      <c r="J39" t="b">
-        <v>1</v>
-      </c>
-      <c r="K39">
-        <v>0.9</v>
-      </c>
-      <c r="L39">
-        <v>0.00238796056729055</v>
-      </c>
-      <c r="M39">
-        <v>8.633460081692426E-07</v>
-      </c>
-      <c r="N39">
-        <v>0.002757946522992761</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1">
-        <v>1.75</v>
-      </c>
-      <c r="C40" s="1">
-        <v>1</v>
-      </c>
-      <c r="D40" s="1">
-        <v>4.46735</v>
-      </c>
-      <c r="E40">
-        <v>0.002687961300868617</v>
-      </c>
-      <c r="F40">
-        <v>0.001368727205208439</v>
-      </c>
-      <c r="G40">
-        <v>2</v>
-      </c>
-      <c r="H40">
-        <v>3</v>
-      </c>
-      <c r="I40">
-        <v>0.001197879856501328</v>
-      </c>
-      <c r="J40" t="b">
-        <v>1</v>
-      </c>
-      <c r="K40">
-        <v>0.9</v>
-      </c>
-      <c r="L40">
-        <v>0.002419165170781756</v>
-      </c>
-      <c r="M40">
-        <v>4.980957105562994E-07</v>
-      </c>
-      <c r="N40">
-        <v>0.04633517350523831</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1">
-        <v>4</v>
-      </c>
-      <c r="D41" s="1">
-        <v>3.6109</v>
-      </c>
-      <c r="E41">
-        <v>0.005731950155392642</v>
-      </c>
-      <c r="F41">
-        <v>0.001896119725043577</v>
-      </c>
-      <c r="G41">
-        <v>2</v>
-      </c>
-      <c r="H41">
-        <v>3</v>
-      </c>
-      <c r="I41">
-        <v>0.003667716458689015</v>
-      </c>
-      <c r="J41" t="b">
-        <v>1</v>
-      </c>
-      <c r="K41">
-        <v>0.9</v>
-      </c>
-      <c r="L41">
-        <v>0.005158755139853378</v>
-      </c>
-      <c r="M41">
-        <v>1.080068228111845E-06</v>
-      </c>
-      <c r="N41">
-        <v>0.006006009282950221</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1">
-        <v>5</v>
-      </c>
-      <c r="D42" s="1">
-        <v>3.4779</v>
-      </c>
-      <c r="E42">
-        <v>0.005598805182168162</v>
-      </c>
-      <c r="F42">
-        <v>0.00092740367285884</v>
-      </c>
-      <c r="G42">
-        <v>2</v>
-      </c>
-      <c r="H42">
-        <v>3</v>
-      </c>
-      <c r="I42">
-        <v>0.004589175944796071</v>
-      </c>
-      <c r="J42" t="b">
-        <v>1</v>
-      </c>
-      <c r="K42">
-        <v>0.9</v>
-      </c>
-      <c r="L42">
-        <v>0.005038924663951345</v>
-      </c>
-      <c r="M42">
-        <v>7.070866573756115E-06</v>
-      </c>
-      <c r="N42">
-        <v>0.00769374947630611</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1">
-        <v>6</v>
-      </c>
-      <c r="D43" s="1">
-        <v>3.3526</v>
-      </c>
-      <c r="E43">
-        <v>0.007530971071360286</v>
-      </c>
-      <c r="F43">
-        <v>0.0006845501127761363</v>
-      </c>
-      <c r="G43">
-        <v>2</v>
-      </c>
-      <c r="H43">
-        <v>3</v>
-      </c>
-      <c r="I43">
-        <v>0.006785727302619737</v>
-      </c>
-      <c r="J43" t="b">
-        <v>1</v>
-      </c>
-      <c r="K43">
-        <v>0.9</v>
-      </c>
-      <c r="L43">
-        <v>0.006777873964224257</v>
-      </c>
-      <c r="M43">
-        <v>5.56288720136683E-07</v>
-      </c>
-      <c r="N43">
-        <v>0.008479217955238413</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1">
-        <v>7</v>
-      </c>
-      <c r="D44" s="1">
-        <v>3.10065</v>
-      </c>
-      <c r="E44">
-        <v>0.01159441098158175</v>
-      </c>
-      <c r="F44">
-        <v>0.002171440392668465</v>
-      </c>
-      <c r="G44">
-        <v>2</v>
-      </c>
-      <c r="H44">
-        <v>3</v>
-      </c>
-      <c r="I44">
-        <v>0.00923044610651217</v>
-      </c>
-      <c r="J44" t="b">
-        <v>1</v>
-      </c>
-      <c r="K44">
-        <v>0.9</v>
-      </c>
-      <c r="L44">
-        <v>0.01043496988342357</v>
-      </c>
-      <c r="M44">
-        <v>2.504018204488985E-06</v>
-      </c>
-      <c r="N44">
-        <v>0.01812750032152885</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1">
-        <v>8</v>
-      </c>
-      <c r="D45" s="1">
-        <v>1.16595</v>
-      </c>
-      <c r="E45">
-        <v>0.004091022493841479</v>
-      </c>
-      <c r="F45">
-        <v>0.001696882068081006</v>
-      </c>
-      <c r="G45">
-        <v>3</v>
-      </c>
-      <c r="H45">
-        <v>4</v>
-      </c>
-      <c r="I45">
-        <v>0.002701492977911216</v>
-      </c>
-      <c r="J45" t="b">
-        <v>1</v>
-      </c>
-      <c r="K45">
-        <v>0.9</v>
-      </c>
-      <c r="L45">
-        <v>0.003681920244457331</v>
-      </c>
-      <c r="M45">
-        <v>8.633460081692426E-07</v>
-      </c>
-      <c r="N45">
-        <v>0.002757946522992761</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A4:A45"/>
-    <mergeCell ref="B4:B9"/>
-    <mergeCell ref="B10:B15"/>
-    <mergeCell ref="B16:B21"/>
-    <mergeCell ref="B22:B27"/>
-    <mergeCell ref="B28:B33"/>
-    <mergeCell ref="B34:B39"/>
-    <mergeCell ref="B40:B45"/>
+    <mergeCell ref="A4:A31"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="B28:B31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
